--- a/ฝึกงาน/Organization Chart.xlsx
+++ b/ฝึกงาน/Organization Chart.xlsx
@@ -86,13 +86,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:colOff>555171</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>62593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:colOff>126546</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
@@ -103,7 +103,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1221920" y="3110593"/>
+          <a:off x="1167492" y="3110593"/>
           <a:ext cx="796018" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -151,7 +151,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>327931</xdr:colOff>
+      <xdr:colOff>176893</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
@@ -168,8 +168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2777217" y="1543051"/>
-          <a:ext cx="1367518" cy="647700"/>
+          <a:off x="2626179" y="1543051"/>
+          <a:ext cx="1518556" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -209,13 +209,707 @@
             <a:t>Sale</a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> General Administation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>229962</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>575585</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2679248" y="6010276"/>
+          <a:ext cx="957944" cy="409574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEA8F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Factory</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>78921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210910</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4966606" y="840921"/>
+          <a:ext cx="1979840" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MTA00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(Admistration DEPT.)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4955721" y="3088821"/>
+          <a:ext cx="2160815" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MTF00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(Finance DEPT.)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4946195" y="1583871"/>
+          <a:ext cx="2084616" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MTB00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(Business</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> General Administation</a:t>
+            <a:t> Admin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> DEPT.)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>183696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>164646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4974770" y="3803196"/>
+          <a:ext cx="2151291" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MTM00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(Purchasing DEPT.)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4974770" y="4527095"/>
+          <a:ext cx="2303690" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MTQ00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(Quality</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Assurance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> DEPT.)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4946195" y="2307771"/>
+          <a:ext cx="2728234" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MTE00</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(Production</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Engineering</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> DEPT.)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>242206</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>549728</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9427027" y="1495425"/>
+          <a:ext cx="2756808" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>E10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Machinery Engineering Section)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -230,625 +924,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>338818</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>72119</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>261256</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2788104" y="6010276"/>
-          <a:ext cx="957944" cy="409574"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EEA8F0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Factory</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>78921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>210910</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50346</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4966606" y="840921"/>
-          <a:ext cx="1979840" cy="542925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>MTA00</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(Admistration DEPT.)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>50346</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4955721" y="3088821"/>
-          <a:ext cx="2160815" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>MTF00</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(Finance DEPT.)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>59871</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>50346</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4946195" y="1583871"/>
-          <a:ext cx="2084616" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>MTB00</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(Business</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Admin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> DEPT.)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>183696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>164646</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4974770" y="3803196"/>
-          <a:ext cx="2151291" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>MTM00</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(Purchasing DEPT.)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>145595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88446</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4974770" y="4527095"/>
-          <a:ext cx="2303690" cy="704851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>MTQ00</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(Quality</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Assurance</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> DEPT.)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>78921</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4946195" y="2307771"/>
-          <a:ext cx="2728234" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>MTE00</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(Production</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> Engineering</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> DEPT.)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>242206</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>549728</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9427027" y="1495425"/>
-          <a:ext cx="2756808" cy="542925"/>
+          <a:off x="9446077" y="2324100"/>
+          <a:ext cx="2775858" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,7 +983,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>E10</a:t>
+            <a:t>E20</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -909,7 +1004,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Machinery Engineering Section)</a:t>
+            <a:t>Industrial Engineering Section)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -925,25 +1020,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>261256</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>587828</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>232681</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>404131</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9446077" y="2324100"/>
-          <a:ext cx="2775858" cy="571500"/>
+          <a:off x="9417502" y="3133725"/>
+          <a:ext cx="3233058" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -983,20 +1078,11 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>E20</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
+            <a:t>E30</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
               <a:solidFill>
@@ -1004,7 +1090,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Industrial Engineering Section)</a:t>
+            <a:t>(Maintenance Engineering Section)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -1020,25 +1106,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>232681</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>232680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>404131</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>423180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9417502" y="3133725"/>
-          <a:ext cx="3233058" cy="523875"/>
+          <a:off x="9417501" y="3857625"/>
+          <a:ext cx="3252108" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1078,11 +1164,20 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>E30</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>E40</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
               <a:solidFill>
@@ -1090,7 +1185,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>(Maintenance Engineering Section)</a:t>
+            <a:t>Next Generation Innovation Section)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -1105,35 +1200,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>232680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>423180</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57146</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452503</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9417501" y="3857625"/>
-          <a:ext cx="3252108" cy="552450"/>
+          <a:off x="4955717" y="5910942"/>
+          <a:ext cx="1620000" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:srgbClr val="A1F3EF"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1164,19 +1256,19 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>E40</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(</a:t>
+            <a:t>MT300</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Production</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
@@ -1185,7 +1277,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Next Generation Innovation Section)</a:t>
+            <a:t> DEPT.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -1201,24 +1293,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>57146</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>5442</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>452503</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>14967</xdr:rowOff>
+      <xdr:colOff>462032</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4955717" y="5910942"/>
+          <a:off x="4965246" y="6653892"/>
           <a:ext cx="1620000" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1256,7 +1348,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>MT300</a:t>
+            <a:t>MT400</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1294,23 +1386,23 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>24492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>462032</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>186417</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34017</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4965246" y="6653892"/>
+          <a:off x="4965246" y="7453992"/>
           <a:ext cx="1620000" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1348,7 +1440,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>MT400</a:t>
+            <a:t>MT500</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1385,24 +1477,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>24492</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>72117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>462032</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>34017</xdr:rowOff>
+      <xdr:colOff>452507</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvPr id="39" name="Rectangle 38"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4965246" y="7453992"/>
+          <a:off x="4955721" y="8263617"/>
           <a:ext cx="1620000" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1440,7 +1532,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>MT500</a:t>
+            <a:t>MT600</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1477,24 +1569,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>72117</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>110217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>452507</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:colOff>462032</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvPr id="40" name="Rectangle 39"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4955721" y="8263617"/>
+          <a:off x="4965246" y="9063717"/>
           <a:ext cx="1620000" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1532,7 +1624,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>MT600</a:t>
+            <a:t>MT700</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1569,24 +1661,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>100692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442982</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>110217</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>462032</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>119742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 39"/>
+        <xdr:cNvPr id="41" name="Rectangle 40"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4965246" y="9063717"/>
+          <a:off x="4946196" y="9816192"/>
           <a:ext cx="1620000" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1624,7 +1716,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>MT700</a:t>
+            <a:t>MT800</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1661,24 +1753,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>100692</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>442982</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>110217</xdr:rowOff>
+      <xdr:colOff>462032</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>14967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 40"/>
+        <xdr:cNvPr id="42" name="Rectangle 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4946196" y="9816192"/>
+          <a:off x="4965246" y="10673442"/>
           <a:ext cx="1620000" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1716,7 +1808,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>MT800</a:t>
+            <a:t>MT900</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1752,32 +1844,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>5442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>462032</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>14967</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>63954</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>55790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvPr id="47" name="Rectangle 46"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4965246" y="10673442"/>
-          <a:ext cx="1620000" cy="581025"/>
+          <a:off x="13468351" y="1627415"/>
+          <a:ext cx="1903639" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="A1F3EF"/>
+          <a:srgbClr val="F2F4A0"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1808,19 +1900,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>MT900</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Production</a:t>
+            <a:t>Maintenance</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
@@ -1829,7 +1909,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> DEPT.</a:t>
+            <a:t>  System</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -1845,25 +1925,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>168730</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>103415</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>63954</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>55790</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 46"/>
+        <xdr:cNvPr id="48" name="Rectangle 47"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13468351" y="1627415"/>
-          <a:ext cx="1903639" cy="523875"/>
+          <a:off x="13458826" y="4723040"/>
+          <a:ext cx="2630261" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,7 +1989,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>  System</a:t>
+            <a:t> Techical Training</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -1924,26 +2004,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>151040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>168730</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>103415</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>16331</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>504828</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 47"/>
+        <xdr:cNvPr id="49" name="Rectangle 48"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13458826" y="4723040"/>
-          <a:ext cx="2630261" cy="523875"/>
+          <a:off x="13487402" y="3884840"/>
+          <a:ext cx="1713140" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1980,7 +2060,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Maintenance</a:t>
+            <a:t>Education</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
@@ -1989,7 +2069,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> Techical Training</a:t>
+            <a:t> System</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2005,25 +2085,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>16331</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>6805</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>74840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>504828</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvPr id="50" name="Rectangle 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13487402" y="3884840"/>
-          <a:ext cx="1713140" cy="523875"/>
+          <a:off x="13477876" y="3122840"/>
+          <a:ext cx="1196068" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,7 +2140,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Education</a:t>
+            <a:t>IoT</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
@@ -2069,7 +2149,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> System</a:t>
+            <a:t>  Training</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2086,24 +2166,24 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>6805</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>74840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>168730</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rectangle 49"/>
+        <xdr:cNvPr id="51" name="Rectangle 50"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13477876" y="3122840"/>
-          <a:ext cx="1196068" cy="523875"/>
+          <a:off x="13477876" y="2370365"/>
+          <a:ext cx="3835854" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2140,7 +2220,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>IoT</a:t>
+            <a:t>Maintenance</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
@@ -2149,7 +2229,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>  Training</a:t>
+            <a:t>  Platform &amp; Maintenance Activity</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2164,94 +2244,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>6805</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>168730</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>36740</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle 50"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13477876" y="2370365"/>
-          <a:ext cx="3835854" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="F2F4A0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Maintenance</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>  Platform &amp; Maintenance Activity</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:colOff>126546</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>327931</xdr:colOff>
+      <xdr:colOff>176893</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>143556</xdr:rowOff>
     </xdr:to>
@@ -2265,8 +2265,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2017938" y="1866901"/>
-          <a:ext cx="759279" cy="1515155"/>
+          <a:off x="1963510" y="1866901"/>
+          <a:ext cx="662669" cy="1515155"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2297,13 +2297,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:colOff>126546</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>143556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>338818</xdr:colOff>
+      <xdr:colOff>229962</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
@@ -2317,8 +2317,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2017938" y="3382056"/>
-          <a:ext cx="770166" cy="2833007"/>
+          <a:off x="1963510" y="3382056"/>
+          <a:ext cx="715738" cy="2833007"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2608,8 +2608,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>72119</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>575585</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>105455</xdr:rowOff>
     </xdr:from>
@@ -2629,8 +2629,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3746048" y="6201455"/>
-          <a:ext cx="1209669" cy="13608"/>
+          <a:off x="3637192" y="6201455"/>
+          <a:ext cx="1318525" cy="13608"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2660,8 +2660,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>72119</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>575585</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
@@ -2681,8 +2681,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3746048" y="6215063"/>
-          <a:ext cx="1219198" cy="729342"/>
+          <a:off x="3637192" y="6215063"/>
+          <a:ext cx="1328054" cy="729342"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2712,8 +2712,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>72119</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>575585</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
@@ -2733,8 +2733,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3746048" y="6215063"/>
-          <a:ext cx="1219198" cy="1529442"/>
+          <a:off x="3637192" y="6215063"/>
+          <a:ext cx="1328054" cy="1529442"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2764,8 +2764,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>72119</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>575585</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
@@ -2785,8 +2785,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3746048" y="6215063"/>
-          <a:ext cx="1209673" cy="2339067"/>
+          <a:off x="3637192" y="6215063"/>
+          <a:ext cx="1318529" cy="2339067"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2816,8 +2816,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>72119</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>575585</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
@@ -2837,8 +2837,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3746048" y="6215063"/>
-          <a:ext cx="1219198" cy="3139167"/>
+          <a:off x="3637192" y="6215063"/>
+          <a:ext cx="1328054" cy="3139167"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2868,8 +2868,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>72119</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>575585</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
@@ -2889,8 +2889,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3746048" y="6215063"/>
-          <a:ext cx="1200148" cy="3891642"/>
+          <a:off x="3637192" y="6215063"/>
+          <a:ext cx="1309004" cy="3891642"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2920,8 +2920,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>72119</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>575585</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
@@ -2941,8 +2941,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3746048" y="6215063"/>
-          <a:ext cx="1219198" cy="4748892"/>
+          <a:off x="3637192" y="6215063"/>
+          <a:ext cx="1328054" cy="4748892"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3759,7 +3759,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ฝึกงาน/Organization Chart.xlsx
+++ b/ฝึกงาน/Organization Chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90933\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DONUT\Documents\GitHub\3_2561\ฝึกงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B603C-7F92-4E8D-8C46-3DFCFC78BFCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13575" windowHeight="8610"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +99,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -163,7 +170,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -243,7 +256,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -308,7 +327,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -388,7 +413,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -468,7 +499,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -566,7 +603,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -646,7 +689,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -744,7 +793,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -842,7 +897,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -937,7 +998,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1032,7 +1099,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1118,7 +1191,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1213,7 +1292,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1305,7 +1390,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1397,7 +1488,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvPr id="38" name="Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1489,7 +1586,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1581,7 +1684,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 39"/>
+        <xdr:cNvPr id="40" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1673,7 +1782,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 40"/>
+        <xdr:cNvPr id="41" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1765,7 +1880,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1857,7 +1978,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 46"/>
+        <xdr:cNvPr id="47" name="Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1937,7 +2064,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 47"/>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2017,7 +2150,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2097,7 +2236,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rectangle 49"/>
+        <xdr:cNvPr id="50" name="Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2177,7 +2322,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle 50"/>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2257,7 +2408,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Elbow Connector 52"/>
+        <xdr:cNvPr id="53" name="Elbow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2309,7 +2466,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Elbow Connector 54"/>
+        <xdr:cNvPr id="55" name="Elbow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -2361,7 +2524,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Elbow Connector 56"/>
+        <xdr:cNvPr id="57" name="Elbow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -2413,7 +2582,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Elbow Connector 58"/>
+        <xdr:cNvPr id="59" name="Elbow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -2465,7 +2640,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Elbow Connector 64"/>
+        <xdr:cNvPr id="65" name="Elbow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="9" idx="1"/>
@@ -2517,7 +2698,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Elbow Connector 66"/>
+        <xdr:cNvPr id="67" name="Elbow Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="11" idx="1"/>
@@ -2569,7 +2756,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Elbow Connector 68"/>
+        <xdr:cNvPr id="69" name="Elbow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="12" idx="1"/>
@@ -2621,7 +2814,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Elbow Connector 70"/>
+        <xdr:cNvPr id="71" name="Elbow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="23" idx="1"/>
@@ -2673,7 +2872,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Elbow Connector 72"/>
+        <xdr:cNvPr id="73" name="Elbow Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="37" idx="1"/>
@@ -2725,7 +2930,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Elbow Connector 74"/>
+        <xdr:cNvPr id="75" name="Elbow Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="38" idx="1"/>
@@ -2777,7 +2988,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Elbow Connector 76"/>
+        <xdr:cNvPr id="77" name="Elbow Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="39" idx="1"/>
@@ -2829,7 +3046,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Elbow Connector 78"/>
+        <xdr:cNvPr id="79" name="Elbow Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="40" idx="1"/>
@@ -2881,7 +3104,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="Elbow Connector 80"/>
+        <xdr:cNvPr id="81" name="Elbow Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="41" idx="1"/>
@@ -2933,7 +3162,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="Elbow Connector 82"/>
+        <xdr:cNvPr id="83" name="Elbow Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="42" idx="1"/>
@@ -2985,7 +3220,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="Elbow Connector 84"/>
+        <xdr:cNvPr id="85" name="Elbow Connector 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="3"/>
           <a:endCxn id="14" idx="1"/>
@@ -3037,7 +3278,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Elbow Connector 86"/>
+        <xdr:cNvPr id="87" name="Elbow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="3"/>
           <a:endCxn id="18" idx="1"/>
@@ -3089,7 +3336,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="Elbow Connector 90"/>
+        <xdr:cNvPr id="91" name="Elbow Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="3"/>
           <a:endCxn id="20" idx="1"/>
@@ -3141,7 +3394,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="Elbow Connector 92"/>
+        <xdr:cNvPr id="93" name="Elbow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="47" idx="1"/>
@@ -3193,7 +3452,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Elbow Connector 94"/>
+        <xdr:cNvPr id="95" name="Elbow Connector 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="51" idx="1"/>
@@ -3245,7 +3510,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="Elbow Connector 98"/>
+        <xdr:cNvPr id="99" name="Elbow Connector 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="49" idx="1"/>
@@ -3297,7 +3568,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="Elbow Connector 100"/>
+        <xdr:cNvPr id="101" name="Elbow Connector 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="48" idx="1"/>
@@ -3349,7 +3626,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Elbow Connector 62"/>
+        <xdr:cNvPr id="63" name="Elbow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="13" idx="1"/>
@@ -3401,7 +3684,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="Elbow Connector 88"/>
+        <xdr:cNvPr id="89" name="Elbow Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="3"/>
           <a:endCxn id="19" idx="1"/>
@@ -3453,7 +3742,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="Elbow Connector 96"/>
+        <xdr:cNvPr id="97" name="Elbow Connector 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="50" idx="1"/>
@@ -3755,14 +4050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AC60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
